--- a/mbs-perturbation/nano/randomForest/nearmiss/nano-randomForest-nearmiss-results.xlsx
+++ b/mbs-perturbation/nano/randomForest/nearmiss/nano-randomForest-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6</v>
+        <v>0.46875</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7200000000000001</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6309523809523809</v>
+        <v>0.2022160664819945</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8205128205128205</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9404761904761905</v>
+        <v>0.9722991689750692</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9302325581395349</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>0.95</v>
+        <v>0.8698060941828255</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.95</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9774999999999999</v>
+        <v>0.8070175438596492</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7272727272727274</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9</v>
+        <v>0.8070175438596491</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8563062058714233</v>
+        <v>0.6775595238095239</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8423809523809522</v>
+        <v>0.4853801169590644</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8344754160568113</v>
+        <v>0.5206773618538325</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8797857142857144</v>
+        <v>0.7316712834718375</v>
       </c>
     </row>
   </sheetData>
